--- a/Excel/PSP/Problem_solving_competency.xlsx
+++ b/Excel/PSP/Problem_solving_competency.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Mahle-dashboard\Excel\Problem Solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Mahle-dashboard\Excel\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Solving Competency" sheetId="1" r:id="rId1"/>
@@ -445,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F348"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H343" sqref="H343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3656,589 +3656,261 @@
       <c r="A319" s="3">
         <v>45244</v>
       </c>
-      <c r="B319" s="2">
-        <v>0</v>
-      </c>
-      <c r="C319" s="2">
-        <v>0</v>
-      </c>
-      <c r="D319" s="2">
-        <v>0</v>
-      </c>
-      <c r="E319" s="2">
-        <v>0</v>
-      </c>
-      <c r="F319" s="2">
-        <v>0</v>
-      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="3">
         <v>45245</v>
       </c>
-      <c r="B320" s="2">
-        <v>0</v>
-      </c>
-      <c r="C320" s="2">
-        <v>0</v>
-      </c>
-      <c r="D320" s="2">
-        <v>0</v>
-      </c>
-      <c r="E320" s="2">
-        <v>0</v>
-      </c>
-      <c r="F320" s="2">
-        <v>0</v>
-      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="3">
         <v>45246</v>
       </c>
-      <c r="B321" s="2">
-        <v>0</v>
-      </c>
-      <c r="C321" s="2">
-        <v>0</v>
-      </c>
-      <c r="D321" s="2">
-        <v>0</v>
-      </c>
-      <c r="E321" s="2">
-        <v>0</v>
-      </c>
-      <c r="F321" s="2">
-        <v>0</v>
-      </c>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="3">
         <v>45247</v>
       </c>
-      <c r="B322" s="2">
-        <v>0</v>
-      </c>
-      <c r="C322" s="2">
-        <v>0</v>
-      </c>
-      <c r="D322" s="2">
-        <v>0</v>
-      </c>
-      <c r="E322" s="2">
-        <v>0</v>
-      </c>
-      <c r="F322" s="2">
-        <v>0</v>
-      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="3">
         <v>45248</v>
       </c>
-      <c r="B323" s="2">
-        <v>0</v>
-      </c>
-      <c r="C323" s="2">
-        <v>0</v>
-      </c>
-      <c r="D323" s="2">
-        <v>0</v>
-      </c>
-      <c r="E323" s="2">
-        <v>0</v>
-      </c>
-      <c r="F323" s="2">
-        <v>0</v>
-      </c>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="3">
         <v>45249</v>
       </c>
-      <c r="B324" s="2">
-        <v>0</v>
-      </c>
-      <c r="C324" s="2">
-        <v>0</v>
-      </c>
-      <c r="D324" s="2">
-        <v>0</v>
-      </c>
-      <c r="E324" s="2">
-        <v>0</v>
-      </c>
-      <c r="F324" s="2">
-        <v>0</v>
-      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3">
         <v>45250</v>
       </c>
-      <c r="B325" s="2">
-        <v>0</v>
-      </c>
-      <c r="C325" s="2">
-        <v>0</v>
-      </c>
-      <c r="D325" s="2">
-        <v>0</v>
-      </c>
-      <c r="E325" s="2">
-        <v>0</v>
-      </c>
-      <c r="F325" s="2">
-        <v>0</v>
-      </c>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="3">
         <v>45251</v>
       </c>
-      <c r="B326" s="2">
-        <v>0</v>
-      </c>
-      <c r="C326" s="2">
-        <v>0</v>
-      </c>
-      <c r="D326" s="2">
-        <v>0</v>
-      </c>
-      <c r="E326" s="2">
-        <v>0</v>
-      </c>
-      <c r="F326" s="2">
-        <v>0</v>
-      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="3">
         <v>45252</v>
       </c>
-      <c r="B327" s="2">
-        <v>0</v>
-      </c>
-      <c r="C327" s="2">
-        <v>0</v>
-      </c>
-      <c r="D327" s="2">
-        <v>0</v>
-      </c>
-      <c r="E327" s="2">
-        <v>0</v>
-      </c>
-      <c r="F327" s="2">
-        <v>0</v>
-      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="3">
         <v>45253</v>
       </c>
-      <c r="B328" s="2">
-        <v>0</v>
-      </c>
-      <c r="C328" s="2">
-        <v>0</v>
-      </c>
-      <c r="D328" s="2">
-        <v>0</v>
-      </c>
-      <c r="E328" s="2">
-        <v>0</v>
-      </c>
-      <c r="F328" s="2">
-        <v>0</v>
-      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="3">
         <v>45254</v>
       </c>
-      <c r="B329" s="2">
-        <v>0</v>
-      </c>
-      <c r="C329" s="2">
-        <v>0</v>
-      </c>
-      <c r="D329" s="2">
-        <v>0</v>
-      </c>
-      <c r="E329" s="2">
-        <v>0</v>
-      </c>
-      <c r="F329" s="2">
-        <v>0</v>
-      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="3">
         <v>45255</v>
       </c>
-      <c r="B330" s="2">
-        <v>0</v>
-      </c>
-      <c r="C330" s="2">
-        <v>0</v>
-      </c>
-      <c r="D330" s="2">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2">
-        <v>0</v>
-      </c>
-      <c r="F330" s="2">
-        <v>0</v>
-      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="3">
         <v>45256</v>
       </c>
-      <c r="B331" s="2">
-        <v>0</v>
-      </c>
-      <c r="C331" s="2">
-        <v>0</v>
-      </c>
-      <c r="D331" s="2">
-        <v>0</v>
-      </c>
-      <c r="E331" s="2">
-        <v>0</v>
-      </c>
-      <c r="F331" s="2">
-        <v>0</v>
-      </c>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="3">
         <v>45257</v>
       </c>
-      <c r="B332" s="2">
-        <v>0</v>
-      </c>
-      <c r="C332" s="2">
-        <v>0</v>
-      </c>
-      <c r="D332" s="2">
-        <v>0</v>
-      </c>
-      <c r="E332" s="2">
-        <v>0</v>
-      </c>
-      <c r="F332" s="2">
-        <v>0</v>
-      </c>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="3">
         <v>45258</v>
       </c>
-      <c r="B333" s="2">
-        <v>0</v>
-      </c>
-      <c r="C333" s="2">
-        <v>0</v>
-      </c>
-      <c r="D333" s="2">
-        <v>0</v>
-      </c>
-      <c r="E333" s="2">
-        <v>0</v>
-      </c>
-      <c r="F333" s="2">
-        <v>0</v>
-      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="3">
         <v>45259</v>
       </c>
-      <c r="B334" s="2">
-        <v>0</v>
-      </c>
-      <c r="C334" s="2">
-        <v>0</v>
-      </c>
-      <c r="D334" s="2">
-        <v>0</v>
-      </c>
-      <c r="E334" s="2">
-        <v>0</v>
-      </c>
-      <c r="F334" s="2">
-        <v>0</v>
-      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="3">
         <v>45260</v>
       </c>
-      <c r="B335" s="2">
-        <v>0</v>
-      </c>
-      <c r="C335" s="2">
-        <v>0</v>
-      </c>
-      <c r="D335" s="2">
-        <v>0</v>
-      </c>
-      <c r="E335" s="2">
-        <v>0</v>
-      </c>
-      <c r="F335" s="2">
-        <v>0</v>
-      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3">
         <v>45261</v>
       </c>
-      <c r="B336" s="2">
-        <v>0</v>
-      </c>
-      <c r="C336" s="2">
-        <v>0</v>
-      </c>
-      <c r="D336" s="2">
-        <v>0</v>
-      </c>
-      <c r="E336" s="2">
-        <v>2</v>
-      </c>
-      <c r="F336" s="2">
-        <v>1</v>
-      </c>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="3">
         <v>45262</v>
       </c>
-      <c r="B337" s="2">
-        <v>0</v>
-      </c>
-      <c r="C337" s="2">
-        <v>0</v>
-      </c>
-      <c r="D337" s="2">
-        <v>0</v>
-      </c>
-      <c r="E337" s="2">
-        <v>3</v>
-      </c>
-      <c r="F337" s="2">
-        <v>2</v>
-      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="3">
         <v>45263</v>
       </c>
-      <c r="B338" s="2">
-        <v>0</v>
-      </c>
-      <c r="C338" s="2">
-        <v>0</v>
-      </c>
-      <c r="D338" s="2">
-        <v>0</v>
-      </c>
-      <c r="E338" s="2">
-        <v>4</v>
-      </c>
-      <c r="F338" s="2">
-        <v>3</v>
-      </c>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="3">
         <v>45264</v>
       </c>
-      <c r="B339" s="2">
-        <v>0</v>
-      </c>
-      <c r="C339" s="2">
-        <v>0</v>
-      </c>
-      <c r="D339" s="2">
-        <v>0</v>
-      </c>
-      <c r="E339" s="2">
-        <v>5</v>
-      </c>
-      <c r="F339" s="2">
-        <v>4</v>
-      </c>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="3">
         <v>45265</v>
       </c>
-      <c r="B340" s="2">
-        <v>0</v>
-      </c>
-      <c r="C340" s="2">
-        <v>0</v>
-      </c>
-      <c r="D340" s="2">
-        <v>0</v>
-      </c>
-      <c r="E340" s="2">
-        <v>6</v>
-      </c>
-      <c r="F340" s="2">
-        <v>5</v>
-      </c>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="3">
         <v>45266</v>
       </c>
-      <c r="B341" s="2">
-        <v>0</v>
-      </c>
-      <c r="C341" s="2">
-        <v>0</v>
-      </c>
-      <c r="D341" s="2">
-        <v>0</v>
-      </c>
-      <c r="E341" s="2">
-        <v>7</v>
-      </c>
-      <c r="F341" s="2">
-        <v>6</v>
-      </c>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="3">
         <v>45267</v>
       </c>
-      <c r="B342" s="2">
-        <v>0</v>
-      </c>
-      <c r="C342" s="2">
-        <v>0</v>
-      </c>
-      <c r="D342" s="2">
-        <v>0</v>
-      </c>
-      <c r="E342" s="2">
-        <v>8</v>
-      </c>
-      <c r="F342" s="2">
-        <v>7</v>
-      </c>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="3">
         <v>45268</v>
       </c>
-      <c r="B343" s="2">
-        <v>0</v>
-      </c>
-      <c r="C343" s="2">
-        <v>0</v>
-      </c>
-      <c r="D343" s="2">
-        <v>0</v>
-      </c>
-      <c r="E343" s="2">
-        <v>9</v>
-      </c>
-      <c r="F343" s="2">
-        <v>8</v>
-      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="3">
         <v>45269</v>
       </c>
-      <c r="B344" s="2">
-        <v>0</v>
-      </c>
-      <c r="C344" s="2">
-        <v>0</v>
-      </c>
-      <c r="D344" s="2">
-        <v>0</v>
-      </c>
-      <c r="E344" s="2">
-        <v>10</v>
-      </c>
-      <c r="F344" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="3">
-        <v>45270</v>
-      </c>
-      <c r="B345" s="2">
-        <v>0</v>
-      </c>
-      <c r="C345" s="2">
-        <v>0</v>
-      </c>
-      <c r="D345" s="2">
-        <v>0</v>
-      </c>
-      <c r="E345" s="2">
-        <v>11</v>
-      </c>
-      <c r="F345" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="3">
-        <v>45271</v>
-      </c>
-      <c r="B346" s="2">
-        <v>0</v>
-      </c>
-      <c r="C346" s="2">
-        <v>0</v>
-      </c>
-      <c r="D346" s="2">
-        <v>0</v>
-      </c>
-      <c r="E346" s="2">
-        <v>12</v>
-      </c>
-      <c r="F346" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="3">
-        <v>45272</v>
-      </c>
-      <c r="B347" s="2">
-        <v>0</v>
-      </c>
-      <c r="C347" s="2">
-        <v>0</v>
-      </c>
-      <c r="D347" s="2">
-        <v>0</v>
-      </c>
-      <c r="E347" s="2">
-        <v>13</v>
-      </c>
-      <c r="F347" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="3"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4249,8 +3921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4777,8 +4450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4802,133 +4476,85 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="2"/>
